--- a/reports/resume_extractor/resume_extraction_report.xlsx
+++ b/reports/resume_extractor/resume_extraction_report.xlsx
@@ -547,14 +547,14 @@
           <t>Mobile</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>1/5</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>0/5</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -564,14 +564,14 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>4/5</t>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>0/5</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>13/30</t>
+          <t>8/30</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>26.7%</t>
         </is>
       </c>
     </row>
@@ -767,13 +767,17 @@
           <t>Others</t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr"/>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
       <c r="J2" t="n">
         <v>6.8</v>
       </c>
       <c r="K2" s="9" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -836,7 +840,7 @@
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -879,9 +883,9 @@
       <c r="F4" t="n">
         <v>8373992286</v>
       </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>9873392286</t>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>8373992286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -889,7 +893,11 @@
           <t>Others</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
       <c r="J4" t="n">
         <v>14.7</v>
       </c>
@@ -944,7 +952,11 @@
           <t>Others</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr"/>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
       <c r="J5" t="n">
         <v>6</v>
       </c>
@@ -1003,13 +1015,17 @@
           <t>Bengaluru</t>
         </is>
       </c>
-      <c r="I6" s="9" t="inlineStr"/>
+      <c r="I6" s="10" t="inlineStr">
+        <is>
+          <t>bengaluru</t>
+        </is>
+      </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" s="9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">

--- a/reports/resume_extractor/resume_extraction_report.xlsx
+++ b/reports/resume_extractor/resume_extraction_report.xlsx
@@ -530,14 +530,14 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>0/5</t>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>1/5</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -547,14 +547,14 @@
           <t>Mobile</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>0/5</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>1/5</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>1/5</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>8/30</t>
+          <t>7/30</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>26.7%</t>
+          <t>23.3%</t>
         </is>
       </c>
     </row>
@@ -775,9 +775,9 @@
       <c r="J2" t="n">
         <v>6.8</v>
       </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>7.7</t>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>6.6</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -875,17 +875,17 @@
           <t>vibhormalik05@gmail.com</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>vibhormalik05@gmail.com</t>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>malikvibhor@linkedin.com</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>8373992286</v>
       </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>8373992286</t>
+      <c r="G4" s="9" t="inlineStr">
+        <is>
+          <t>9873392286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="J5" t="n">
         <v>6</v>
       </c>
-      <c r="K5" s="9" t="inlineStr">
+      <c r="K5" s="10" t="inlineStr">
         <is>
           <t>5.11</t>
         </is>
@@ -1023,7 +1023,7 @@
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
-      <c r="K6" s="9" t="inlineStr">
+      <c r="K6" s="10" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>

--- a/reports/resume_extractor/resume_extraction_report.xlsx
+++ b/reports/resume_extractor/resume_extraction_report.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>2/10</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -532,12 +532,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>1/10</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -547,14 +547,14 @@
           <t>Mobile</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>1/5</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>0/10</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
@@ -564,14 +564,14 @@
           <t>Location</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>0/5</t>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>1/10</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>1/5</t>
+          <t>2/10</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>3/5</t>
+          <t>7/10</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
     </row>
@@ -618,12 +618,12 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>7/30</t>
+          <t>13/60</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>23.3%</t>
+          <t>21.7%</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,8 +648,8 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
@@ -657,7 +657,7 @@
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="21" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="33" customWidth="1" min="12" max="12"/>
     <col width="24" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -875,17 +875,17 @@
           <t>vibhormalik05@gmail.com</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>malikvibhor@linkedin.com</t>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>vibhormalik05@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>8373992286</v>
       </c>
-      <c r="G4" s="9" t="inlineStr">
-        <is>
-          <t>9873392286</t>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>8373992286</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1034,6 +1034,305 @@
         </is>
       </c>
       <c r="M6" s="9" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vishal_kumar.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vishal Kumar</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>Seeking Opportunity</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>vishaldeep4357@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="inlineStr">
+        <is>
+          <t>vishaldeep4357@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9546299846</v>
+      </c>
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>9546299846</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="I7" s="10" t="inlineStr">
+        <is>
+          <t>new delhi</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>fresher</t>
+        </is>
+      </c>
+      <c r="M7" s="9" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AshishRanjan.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ashish Ranjan</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Ashish Ranjan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ashishranjan.ar7@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>ashishranjan.ar7@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>8404853652</v>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>8404853652</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="I8" s="10" t="inlineStr">
+        <is>
+          <t>bengaluru</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Mindfire Solutions</t>
+        </is>
+      </c>
+      <c r="M8" s="10" t="inlineStr">
+        <is>
+          <t>mindfire solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Thriveni.docx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biyyala Thriveni</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>Biyyala Thriveni</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>biyyalathriveni77@gmail.com</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>biyyalathriveni77@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>7383665921</v>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>7383665921</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="10" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>UI Sottech Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="M9" s="9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SumitGulliya.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sumit Gulliya</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Sumit Gulliya</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sgulliya@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>sgulliya@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>9711672619</v>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>9711672619</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>delhi</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>11.9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Bank Of America Continnum India</t>
+        </is>
+      </c>
+      <c r="M10" s="9" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ShinieMehrotra.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Shinie Mehrotra</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Shinie Mehrotra</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>shinie.mehrotra.vit@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>SHINIEMALHOTRA@ICLOUD.COM</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>9538408670</v>
+      </c>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>9538408670</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bengaluru</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>bengaluru</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K11" s="10" t="inlineStr">
+        <is>
+          <t>7.7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="M11" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
